--- a/docs/PT2ov/PT2ov_26.07.24_output.xlsx
+++ b/docs/PT2ov/PT2ov_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2925 +505,3463 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730817414.9624588</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730817415.418322</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817414.9624588.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817415.418322.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>298.98</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>299.19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730817415.5891337</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730817416.572078</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817415.5891337.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817416.572078.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>298.95</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>298.76</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730817418.3942885</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730817419.3833578</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817418.3942885.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817419.3833578.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>298.75</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>297.84</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.910000000000025</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730817419.3980012</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730817420.2361538</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817419.3980012.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817420.2361538.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>297.84</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>295.4</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.439999999999998</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730817420.4733522</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730817421.3499627</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817420.4733522.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817421.3499627.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>295.87</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>295.22</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730817421.8067822</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730817424.195492</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817421.8067822.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730817424.195492.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>294.94</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>294.88</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730817427.7681015</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1730817427.7681015.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1730817427.7681015.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>294.42</v>
       </c>
-      <c r="J9" t="n">
-        <v>294.42</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="L9" t="n">
+        <v>294.26</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.160000000000025</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730817427.9345617</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730817428.2620552</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817427.9345617.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817428.2620552.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>136.12</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>136.38</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730817428.355724</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730817430.064842</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817428.355724.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817430.064842.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>136.26</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>136.24</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730817432.5306811</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730817433.1614347</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817432.5306811.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817433.1614347.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>134.78</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>134.37</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730817433.3352408</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730817433.5472033</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817433.3352408.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817433.5472033.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>134.21</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>133.1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.110000000000014</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730817433.8800611</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730817434.7502089</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817433.8800611.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817434.7502089.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>133.57</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>134.09</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.5200000000000102</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730817435.1393588</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730817435.4011064</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817435.1393588.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817435.4011064.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>133.65</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>133.02</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6299999999999955</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730817435.866149</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730817437.2894673</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817435.866149.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817437.2894673.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>133.12</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>133.55</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.4300000000000068</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730817438.9850912</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730817439.9166472</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817438.9850912.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817439.9166472.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>135.21</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>135.96</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730817440.0719519</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730817440.7709894</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817440.0719519.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730817440.7709894.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>135.67</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>135.45</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730817442.085436</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730817443.450548</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817442.085436.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817443.450548.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6965</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6933.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-31.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730817446.7198472</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730817447.0039005</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817446.7198472.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817447.0039005.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6923</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6902</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>21</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730817447.3308616</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730817448.318813</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817447.3308616.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817448.318813.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6914</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6925.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-11.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730817448.720608</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730817449.131538</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817448.720608.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817449.131538.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6910</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6867.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>42.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730817449.4975386</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730817451.026512</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817449.4975386.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817451.026512.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6893.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6926.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-33</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730817452.3537989</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730817453.4446294</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817452.3537989.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730817453.4446294.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6933.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6936</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730817455.7700279</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730817457.4218287</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817455.7700279.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817457.4218287.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>537.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>536.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730817457.6091</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730817458.9620235</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817457.6091.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817458.9620235.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>536.85</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>537.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730817459.229031</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730817459.5998523</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817459.229031.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817459.5998523.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>537.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>537.05</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.4500000000000455</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730817460.2747922</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730817460.984672</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817460.2747922.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817460.984672.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>533.95</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>527.95</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730817461.3127406</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730817462.278653</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817461.3127406.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817462.278653.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>529.05</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>526</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>3.049999999999955</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730817463.2092643</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730817467.6134624</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817463.2092643.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817467.6134624.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>520.8</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>523.55</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-2.75</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730817467.6295524</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730817468.6033254</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817467.6295524.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730817468.6033254.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>523.55</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>524.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.9500000000000455</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730817469.1351938</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730817470.0504544</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817469.1351938.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817470.0504544.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1096.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1095.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730817471.168249</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730817472.4735215</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817471.168249.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817472.4735215.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1093.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1094.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730817473.1052601</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730817473.5160742</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817473.1052601.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817473.5160742.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1086.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1086</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730817473.5318966</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730817474.1924999</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817473.5318966.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817474.1924999.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1086</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1078.6</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>7.400000000000091</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730817474.2921507</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730817474.7036786</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817474.2921507.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817474.7036786.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1079.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1070.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>9.200000000000045</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730817474.9320674</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730817476.0063715</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817474.9320674.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817476.0063715.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1071.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1069.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730817476.9550037</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730817477.6162176</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817476.9550037.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817477.6162176.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1060.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1062.6</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730817480.1734846</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730817480.2305675</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817480.1734846.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817480.2305675.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1072.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1072.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1999999999998181</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730817481.2841444</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730817482.2125113</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817481.2841444.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730817482.2125113.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1078</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1071.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-6.799999999999955</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730817482.9979055</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730817487.0415483</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817482.9979055.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817487.0415483.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>131</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>129.48</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.52000000000001</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730817487.0561566</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730817487.4471304</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817487.0561566.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817487.4471304.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>129.48</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>128.46</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.019999999999982</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730817487.7844129</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730817488.0108228</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817487.7844129.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817488.0108228.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>128.88</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>128</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.8799999999999955</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730817488.5677154</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730817489.1742089</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817488.5677154.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817489.1742089.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>127.48</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>126.58</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.9000000000000057</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730817490.0149057</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730817491.5272012</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817490.0149057.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817491.5272012.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>125.42</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>125.44</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730817493.8743093</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730817494.3206198</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817493.8743093.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817494.3206198.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>127.34</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>127.62</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730817494.5961602</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730817494.7443354</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817494.5961602.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730817494.7443354.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>127.48</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>127.7</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730817496.0155954</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730817497.6613517</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817496.0155954.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817497.6613517.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>173.5</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>173.1</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.4000000000000057</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730817499.1037364</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730817499.4068756</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817499.1037364.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817499.4068756.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>175.74</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>176.48</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.7399999999999807</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730817499.6701865</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730817500.209952</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817499.6701865.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817500.209952.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>176</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>173.76</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-2.240000000000009</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730817500.9082265</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730817501.2490773</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817500.9082265.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817501.2490773.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>172.64</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>170.6</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.039999999999992</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730817501.7750435</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730817502.4904919</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817501.7750435.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817502.4904919.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>170.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>169.88</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730817504.1789086</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730817506.3480816</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817504.1789086.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817506.3480816.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>166.48</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>170.94</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-4.460000000000008</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-2.68</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730817506.3636982</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730817507.2437353</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817506.3636982.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730817507.2437353.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>170.94</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>170.84</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730817511.04649</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730817513.6820934</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817511.04649.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817513.6820934.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>53.42</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>53.205</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.2150000000000034</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730817513.7045684</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730817514.3097732</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817513.7045684.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817514.3097732.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>53.205</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>53.015</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730817514.4659054</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730817514.7011604</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817514.4659054.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817514.7011604.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>53.01</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>52.765</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2449999999999974</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730817515.2129984</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730817515.9077234</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817515.2129984.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817515.9077234.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>52.515</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>52.435</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730817516.4436152</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730817518.6421664</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817516.4436152.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817518.6421664.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>52.215</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>52.12</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.09500000000000597</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730817521.1596236</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730817521.5111673</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817521.1596236.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730817521.5111673.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>52.55</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>52.535</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730817522.7227294</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730817524.2716308</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817522.7227294.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817524.2716308.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1460</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1460</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,2973 +3969,3522 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730817526.7014174</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730817527.7624092</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817526.7014174.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817527.7624092.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1448.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1446.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730817528.4300573</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730817528.8658924</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817528.4300573.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817528.8658924.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1444.6</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1440</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>4.599999999999909</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730817529.9149783</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730817530.1190624</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817529.9149783.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817530.1190624.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1417.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1419.8</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-2.599999999999909</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730817532.9373071</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730817532.992968</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817532.9373071.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817532.992968.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1438.4</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1439.6</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.199999999999818</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730817533.0505536</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730817534.2502625</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817533.0505536.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817534.2502625.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1439.6</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1446.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>7.200000000000045</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730817534.4747145</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730817535.107823</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817534.4747145.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730817535.107823.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1443</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1444.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730817536.1522515</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730817537.630604</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817536.1522515.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817537.630604.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>63.62</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>63.52</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730817538.4180968</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730817539.2402954</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817538.4180968.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817539.2402954.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>63.77</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>63.55</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.220000000000006</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730817540.4909909</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730817540.6748219</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817540.4909909.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817540.6748219.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>62.99</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>62.82</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730817540.8592868</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730817541.2154987</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817540.8592868.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817541.2154987.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>62.77</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>62.66</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1100000000000065</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730817541.811069</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730817541.8676767</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817541.811069.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817541.8676767.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>62.36</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>62.41</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730817541.9262533</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730817542.2877436</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817541.9262533.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817542.2877436.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>62.36</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>62.33</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730817543.5201843</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730817544.2308207</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817543.5201843.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730817544.2308207.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>60.8</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>60.76</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730817548.8509626</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730817548.8509626.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730817548.8509626.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>61.55</v>
       </c>
-      <c r="J75" t="n">
-        <v>61.55</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
+      <c r="L75" t="n">
+        <v>61.32</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.2299999999999969</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730817549.787649</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730817550.7525945</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817549.787649.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817550.7525945.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>58.74</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>58.97</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730817553.1774259</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730817553.7196474</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817553.1774259.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817553.7196474.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>58.46</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>58.01</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.4500000000000028</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730817553.7733276</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730817554.093629</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817553.7733276.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817554.093629.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>58.15</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>57.7</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.4499999999999957</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730817554.5026283</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730817554.7873747</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817554.5026283.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817554.7873747.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>57.88</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>57.68</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730817554.8410554</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730817554.8947074</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817554.8410554.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817554.8947074.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>57.76</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>57.86</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730817555.0241678</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730817555.2399592</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817555.0241678.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817555.2399592.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>57.88</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>57.6</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730817556.3199744</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730817557.3705375</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817556.3199744.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817557.3705375.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>56.53</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>56.69</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730817558.9901943</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730817561.0707989</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817558.9901943.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SELG1730817561.0707989.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>57.32</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>57.16</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.1600000000000037</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730817561.7727668</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730817563.249503</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730817561.7727668.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730817563.249503.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>145</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>144.66</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.3400000000000034</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730817565.2493665</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730817566.0811353</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730817565.2493665.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730817566.0811353.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>142.64</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>142.22</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730817566.6894748</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730817567.4826858</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730817566.6894748.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730817567.4826858.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>140.88</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>141.06</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730817568.2398417</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730817572.9907894</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730817568.2398417.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730817572.9907894.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>139.56</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>140.64</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-1.079999999999984</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730817573.8649466</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730817574.664459</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817573.8649466.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817574.664459.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>58.44</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>58.54</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730817578.0625484</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1730817578.690374</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817578.0625484.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817578.690374.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>57.18</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>56.67</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.509999999999998</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730817578.853501</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1730817579.07588</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817578.853501.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817579.07588.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>56.8</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>56.52</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.279999999999994</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730817579.521462</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1730817580.2482793</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817579.521462.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817580.2482793.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>56.26</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>55.94</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.3200000000000003</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730817580.7696497</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730817581.1311429</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817580.7696497.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817581.1311429.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>55.96</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>55.6</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730817584.1797247</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730817584.323211</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817584.1797247.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730817584.323211.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>56.38</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>56.55</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.1699999999999946</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730817587.9398882</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1730817588.2066033</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817587.9398882.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817588.2066033.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>384.56</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>383.31</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1730817588.637397</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1730817589.3167524</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817588.637397.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817589.3167524.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>382.56</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>381.93</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.6299999999999955</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1730817593.0831823</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1730817593.151501</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817593.0831823.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817593.151501.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>383.22</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>383.2</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.02000000000003865</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1730817593.213493</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1730817593.661458</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817593.213493.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817593.661458.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>382.75</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>381.68</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>1.069999999999993</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1730817593.806383</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1730817594.4467716</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817593.806383.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817594.4467716.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>382.46</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>379.29</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>3.169999999999959</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1730817594.5992863</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1730817595.3723395</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817594.5992863.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817595.3723395.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>381.77</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>382.31</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.5400000000000205</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1730817596.8883805</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1730817597.7060177</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817596.8883805.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817597.7060177.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>384.55</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>385.94</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>1.389999999999986</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1730817598.0664809</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1730817598.128507</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817598.0664809.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817598.128507.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>385.6</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>385.55</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1730817598.1973288</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1730817599.5527816</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817598.1973288.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730817599.5527816.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>385.31</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>385.36</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1730817601.184255</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1730817601.184255.png</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1730817601.184255.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>383.81</v>
       </c>
-      <c r="J103" t="n">
-        <v>383.81</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
+      <c r="L103" t="n">
+        <v>383.6</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.2099999999999795</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1730817601.3352203</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1730817602.3944397</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817601.3352203.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817602.3944397.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>0.10132</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>0.10122</v>
       </c>
-      <c r="K104" t="n">
-        <v>-0.0001000000000000029</v>
+      <c r="M104" t="n">
+        <v>-9.999999999998899e-05</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1730817603.4897122</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1730817604.9279501</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817603.4897122.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817604.9279501.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>0.10112</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>0.10114</v>
       </c>
-      <c r="K105" t="n">
-        <v>-2.000000000000612e-05</v>
+      <c r="M105" t="n">
+        <v>-1.999999999999225e-05</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1730817605.7105749</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1730817606.161887</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817605.7105749.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817606.161887.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>0.10058</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>0.09954</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.001039999999999999</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1730817606.7980695</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1730817607.0723293</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817606.7980695.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817607.0723293.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>0.09920000000000001</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>0.09886</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.000340000000000007</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1730817608.4077675</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1730817608.6075146</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817608.4077675.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817608.6075146.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>0.09794000000000001</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>0.09778000000000001</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.0001600000000000074</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1730817608.7330687</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1730817609.60325</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817608.7330687.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817609.60325.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>0.09820000000000001</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>0.09796000000000001</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.0002400000000000041</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1730817611.1926954</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1730817611.4079237</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817611.1926954.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817611.4079237.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>0.09876000000000001</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>0.09910000000000001</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.0003399999999999931</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1730817611.7015634</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1730817613.4396877</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817611.7015634.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/FEES1730817613.4396877.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>0.09878000000000001</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>0.09892000000000001</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.0001400000000000012</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1730817614.583237</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1730817616.0000994</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817614.583237.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817616.0000994.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>3131.3</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>3128.65</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-2.650000000000091</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1730817618.492993</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1730817619.1722038</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817618.492993.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817619.1722038.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>3117.95</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>3101.1</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>16.84999999999991</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1730817619.7847536</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1730817620.4737947</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817619.7847536.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817620.4737947.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>3084.7</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>3076.9</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>7.799999999999727</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1730817621.4530478</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1730817623.4229407</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817621.4530478.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817623.4229407.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>3058.95</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>3069.1</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>-10.15000000000009</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1730817624.287928</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1730817625.2854555</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817624.287928.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/MXI1730817625.2854555.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>3081.15</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>3083.3</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>2.150000000000091</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1730817627.0771594</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1730817627.2567742</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817627.0771594.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817627.2567742.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>37.865</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>37.975</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1730817627.4070516</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1730817628.07366</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817627.4070516.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817628.07366.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>37.9</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>37.835</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-0.06499999999999773</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1730817630.6495352</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1730817630.8272715</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817630.6495352.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817630.8272715.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>37.72</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>37.63</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1730817631.204008</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1730817631.6697245</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817631.204008.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817631.6697245.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>37.555</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>37.285</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.2700000000000031</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1730817634.468358</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1730817638.576051</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817634.468358.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817638.576051.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>35.43</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>35.89</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>-0.4600000000000009</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1730817639.090671</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1730817639.2401595</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817639.090671.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730817639.2401595.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>35.88</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>35.87</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -6396,7 +7498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6420,6 +7522,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6428,11 +7545,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.989999999999952</v>
+        <v>7.199999999999932</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.7199999999999932</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6446,6 +7572,15 @@
       <c r="C3" t="n">
         <v>9</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.2188888888888888</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6459,6 +7594,15 @@
       <c r="C4" t="n">
         <v>9</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.8444444444444597</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6472,6 +7616,15 @@
       <c r="C5" t="n">
         <v>8</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.1487499999999997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6480,11 +7633,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002140000000000003</v>
+        <v>0.002140000000000031</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.0002675000000000038</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6493,11 +7655,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01999999999998892</v>
+        <v>-0.2499999999999858</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.03124999999999822</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6511,6 +7682,15 @@
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6524,6 +7704,15 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.2514285714285681</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6537,6 +7726,15 @@
       <c r="C10" t="n">
         <v>7</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.528571428571435</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.220000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6550,6 +7748,15 @@
       <c r="C11" t="n">
         <v>7</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.721428571428565</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6558,11 +7765,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.259999999999934</v>
+        <v>2.419999999999959</v>
       </c>
       <c r="C12" t="n">
         <v>7</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.3457142857142799</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6576,6 +7792,15 @@
       <c r="C13" t="n">
         <v>6</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.289999999999998</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6589,6 +7814,15 @@
       <c r="C14" t="n">
         <v>6</v>
       </c>
+      <c r="D14" t="n">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.1399999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6602,6 +7836,15 @@
       <c r="C15" t="n">
         <v>6</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.06333333333333258</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6615,6 +7858,15 @@
       <c r="C16" t="n">
         <v>6</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.0074999999999991</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.1900000000000002</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6628,6 +7880,15 @@
       <c r="C17" t="n">
         <v>5</v>
       </c>
+      <c r="D17" t="n">
+        <v>2.799999999999909</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6641,6 +7902,15 @@
       <c r="C18" t="n">
         <v>4</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.2950000000000017</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.8400000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6654,6 +7924,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
